--- a/data/pca/factorExposure/factorExposure_2016-08-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01191019141597498</v>
+        <v>0.01334399666586781</v>
       </c>
       <c r="C2">
-        <v>-0.05422056622656401</v>
+        <v>0.04328238455752584</v>
       </c>
       <c r="D2">
-        <v>-0.03920279575965183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06262175081921728</v>
+      </c>
+      <c r="E2">
+        <v>-0.06988471689822635</v>
+      </c>
+      <c r="F2">
+        <v>-0.06895091311257613</v>
+      </c>
+      <c r="G2">
+        <v>0.03409431451080746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.06417953092739935</v>
+        <v>0.0305297862462112</v>
       </c>
       <c r="C3">
-        <v>-0.09606974667592751</v>
+        <v>0.08156598361648007</v>
       </c>
       <c r="D3">
-        <v>-0.0995555366693283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08754261953248947</v>
+      </c>
+      <c r="E3">
+        <v>-0.07763225298666086</v>
+      </c>
+      <c r="F3">
+        <v>0.01362226730589726</v>
+      </c>
+      <c r="G3">
+        <v>-0.03673580031316095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06716527342964861</v>
+        <v>0.05777216552426117</v>
       </c>
       <c r="C4">
-        <v>-0.05941801375877431</v>
+        <v>0.06645182378891536</v>
       </c>
       <c r="D4">
-        <v>-0.02770785175288484</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05835609042876105</v>
+      </c>
+      <c r="E4">
+        <v>-0.06934685534056016</v>
+      </c>
+      <c r="F4">
+        <v>-0.07584294816097614</v>
+      </c>
+      <c r="G4">
+        <v>-0.03920855837884769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0410710967113983</v>
+        <v>0.03522872243674727</v>
       </c>
       <c r="C6">
-        <v>-0.03653637740003502</v>
+        <v>0.03158808534042751</v>
       </c>
       <c r="D6">
-        <v>-0.03050888458811246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06279935896963131</v>
+      </c>
+      <c r="E6">
+        <v>-0.07369856025503471</v>
+      </c>
+      <c r="F6">
+        <v>-0.0589927092175561</v>
+      </c>
+      <c r="G6">
+        <v>-0.02305108824235014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02333123392678235</v>
+        <v>0.01893151123109319</v>
       </c>
       <c r="C7">
-        <v>-0.04337108619245834</v>
+        <v>0.03905064947213693</v>
       </c>
       <c r="D7">
-        <v>0.006243798831296611</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03636448580543068</v>
+      </c>
+      <c r="E7">
+        <v>-0.04976707462478266</v>
+      </c>
+      <c r="F7">
+        <v>-0.09958515678985094</v>
+      </c>
+      <c r="G7">
+        <v>-0.008392138146037089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.003170569969297342</v>
+        <v>0.003392205992119781</v>
       </c>
       <c r="C8">
-        <v>-0.02773888246723324</v>
+        <v>0.02933853411652992</v>
       </c>
       <c r="D8">
-        <v>-0.03106541537104034</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03128925896456924</v>
+      </c>
+      <c r="E8">
+        <v>-0.05092915522625201</v>
+      </c>
+      <c r="F8">
+        <v>-0.04139909954203525</v>
+      </c>
+      <c r="G8">
+        <v>-0.01080538806484357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03684527460988634</v>
+        <v>0.03653458521818469</v>
       </c>
       <c r="C9">
-        <v>-0.04382504652813762</v>
+        <v>0.05289122232943429</v>
       </c>
       <c r="D9">
-        <v>-0.0147054662752611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04231412009644307</v>
+      </c>
+      <c r="E9">
+        <v>-0.05752468482215668</v>
+      </c>
+      <c r="F9">
+        <v>-0.08366371287516912</v>
+      </c>
+      <c r="G9">
+        <v>-0.0239730037839005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.06882524607507158</v>
+        <v>0.09925921855143696</v>
       </c>
       <c r="C10">
-        <v>0.1977072251261089</v>
+        <v>-0.1954936597734432</v>
       </c>
       <c r="D10">
-        <v>0.01257828796420429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.005840426735779262</v>
+      </c>
+      <c r="E10">
+        <v>-0.04501762809583507</v>
+      </c>
+      <c r="F10">
+        <v>-0.04080932639998911</v>
+      </c>
+      <c r="G10">
+        <v>-0.009539757562225146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0424811730237102</v>
+        <v>0.036461011413614</v>
       </c>
       <c r="C11">
-        <v>-0.05373488717648489</v>
+        <v>0.05160317916329594</v>
       </c>
       <c r="D11">
-        <v>-0.01335757044055627</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03360639641772999</v>
+      </c>
+      <c r="E11">
+        <v>-0.01616250462933142</v>
+      </c>
+      <c r="F11">
+        <v>-0.06432646862213434</v>
+      </c>
+      <c r="G11">
+        <v>-0.01569039182352086</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04230573497249297</v>
+        <v>0.03732208411274944</v>
       </c>
       <c r="C12">
-        <v>-0.04874904962616987</v>
+        <v>0.04782973632698462</v>
       </c>
       <c r="D12">
-        <v>-0.001399845115857043</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02509352196005838</v>
+      </c>
+      <c r="E12">
+        <v>-0.02386610146340487</v>
+      </c>
+      <c r="F12">
+        <v>-0.06613117870849601</v>
+      </c>
+      <c r="G12">
+        <v>-0.01270888124733978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01785826661351071</v>
+        <v>0.01240939246274531</v>
       </c>
       <c r="C13">
-        <v>-0.04955407681243861</v>
+        <v>0.0435993803558349</v>
       </c>
       <c r="D13">
-        <v>-0.02175494816312544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05940016696411585</v>
+      </c>
+      <c r="E13">
+        <v>-0.08311381389991686</v>
+      </c>
+      <c r="F13">
+        <v>-0.09934945754732294</v>
+      </c>
+      <c r="G13">
+        <v>-0.02101124305101547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008318734427088855</v>
+        <v>0.004853217914508897</v>
       </c>
       <c r="C14">
-        <v>-0.03531606728788614</v>
+        <v>0.03224557739236365</v>
       </c>
       <c r="D14">
-        <v>0.01417523359072256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02465324923543497</v>
+      </c>
+      <c r="E14">
+        <v>-0.03868429085476173</v>
+      </c>
+      <c r="F14">
+        <v>-0.09380121257937526</v>
+      </c>
+      <c r="G14">
+        <v>0.006587269333988033</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0007047288551797323</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005585951537565541</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.00655576625942306</v>
+      </c>
+      <c r="E15">
+        <v>-0.001830380222651536</v>
+      </c>
+      <c r="F15">
+        <v>-0.004466074047896212</v>
+      </c>
+      <c r="G15">
+        <v>-0.0004895086368823314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03878449114921103</v>
+        <v>0.03384856081942821</v>
       </c>
       <c r="C16">
-        <v>-0.04624669235374426</v>
+        <v>0.04552197012571766</v>
       </c>
       <c r="D16">
-        <v>-0.007004543395484085</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02683736798474502</v>
+      </c>
+      <c r="E16">
+        <v>-0.03029356005323202</v>
+      </c>
+      <c r="F16">
+        <v>-0.06715882322851505</v>
+      </c>
+      <c r="G16">
+        <v>-0.002132945987651598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02741930165156217</v>
+        <v>0.01664284247416225</v>
       </c>
       <c r="C19">
-        <v>-0.06217318096436118</v>
+        <v>0.05085421838710451</v>
       </c>
       <c r="D19">
-        <v>-0.07615249500705783</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08940123270700737</v>
+      </c>
+      <c r="E19">
+        <v>-0.1004686198250591</v>
+      </c>
+      <c r="F19">
+        <v>-0.07632453894344242</v>
+      </c>
+      <c r="G19">
+        <v>0.0213213662688238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01905175213653171</v>
+        <v>0.01348552920749843</v>
       </c>
       <c r="C20">
-        <v>-0.04536913984451032</v>
+        <v>0.04121843524955854</v>
       </c>
       <c r="D20">
-        <v>-0.01589453863348855</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03612804055889433</v>
+      </c>
+      <c r="E20">
+        <v>-0.06905718527569984</v>
+      </c>
+      <c r="F20">
+        <v>-0.07870607492550968</v>
+      </c>
+      <c r="G20">
+        <v>-0.005914718437049151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01402781272049216</v>
+        <v>0.00909567178841412</v>
       </c>
       <c r="C21">
-        <v>-0.04816553601303911</v>
+        <v>0.04536199092186663</v>
       </c>
       <c r="D21">
-        <v>-0.03751991745173909</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06589503248866445</v>
+      </c>
+      <c r="E21">
+        <v>-0.09689655920568616</v>
+      </c>
+      <c r="F21">
+        <v>-0.1223138804199627</v>
+      </c>
+      <c r="G21">
+        <v>-0.009100808445337985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.002074693600333744</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02335909691785622</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03572333934746017</v>
+      </c>
+      <c r="E22">
+        <v>-0.02789858380870919</v>
+      </c>
+      <c r="F22">
+        <v>-0.01477676639196456</v>
+      </c>
+      <c r="G22">
+        <v>-0.039287195008267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.002143710052926444</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02348497632612894</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03538394137365312</v>
+      </c>
+      <c r="E23">
+        <v>-0.02815214089958705</v>
+      </c>
+      <c r="F23">
+        <v>-0.01461015368693946</v>
+      </c>
+      <c r="G23">
+        <v>-0.03948818731125971</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03435921195356795</v>
+        <v>0.03362771962710191</v>
       </c>
       <c r="C24">
-        <v>-0.05055408946910675</v>
+        <v>0.05363107341480598</v>
       </c>
       <c r="D24">
-        <v>-0.006533643556005173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02602843900365555</v>
+      </c>
+      <c r="E24">
+        <v>-0.02757579564969059</v>
+      </c>
+      <c r="F24">
+        <v>-0.07572150286339197</v>
+      </c>
+      <c r="G24">
+        <v>-0.009972071895483348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04903569545058261</v>
+        <v>0.04392964965569813</v>
       </c>
       <c r="C25">
-        <v>-0.0594931193401515</v>
+        <v>0.05688711406632786</v>
       </c>
       <c r="D25">
-        <v>0.002612152622252656</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02463805247790461</v>
+      </c>
+      <c r="E25">
+        <v>-0.0220548125870185</v>
+      </c>
+      <c r="F25">
+        <v>-0.07801266351586061</v>
+      </c>
+      <c r="G25">
+        <v>-0.02687536581942324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01654798920772224</v>
+        <v>0.01384205938698989</v>
       </c>
       <c r="C26">
-        <v>-0.01586273019465885</v>
+        <v>0.01738626735101316</v>
       </c>
       <c r="D26">
-        <v>0.001293355380456125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02392838147925554</v>
+      </c>
+      <c r="E26">
+        <v>-0.03957167720634199</v>
+      </c>
+      <c r="F26">
+        <v>-0.06850103602165447</v>
+      </c>
+      <c r="G26">
+        <v>0.01336971878298063</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.07944741273139695</v>
+        <v>0.1340540767529524</v>
       </c>
       <c r="C28">
-        <v>0.233561603407232</v>
+        <v>-0.2457176776153945</v>
       </c>
       <c r="D28">
-        <v>0.01126850529419516</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02191809221911279</v>
+      </c>
+      <c r="E28">
+        <v>-0.04695923500312151</v>
+      </c>
+      <c r="F28">
+        <v>-0.05679427289846051</v>
+      </c>
+      <c r="G28">
+        <v>-0.02273573031925769</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009719662020441165</v>
+        <v>0.005883011038256824</v>
       </c>
       <c r="C29">
-        <v>-0.02858010113326259</v>
+        <v>0.02774495622690448</v>
       </c>
       <c r="D29">
-        <v>0.01930943773381631</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0185673379376175</v>
+      </c>
+      <c r="E29">
+        <v>-0.03895902635926609</v>
+      </c>
+      <c r="F29">
+        <v>-0.08692603185493461</v>
+      </c>
+      <c r="G29">
+        <v>-0.005795412768683595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.05449803699593551</v>
+        <v>0.04227779283850448</v>
       </c>
       <c r="C30">
-        <v>-0.05811556892714324</v>
+        <v>0.06514025158409464</v>
       </c>
       <c r="D30">
-        <v>-0.0704043196617513</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1063826967607539</v>
+      </c>
+      <c r="E30">
+        <v>-0.06632866426981017</v>
+      </c>
+      <c r="F30">
+        <v>-0.09223034636513848</v>
+      </c>
+      <c r="G30">
+        <v>0.01255254415930969</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05531797542145407</v>
+        <v>0.05478899491356003</v>
       </c>
       <c r="C31">
-        <v>-0.03325228068954895</v>
+        <v>0.05506401114060029</v>
       </c>
       <c r="D31">
-        <v>0.03060239394694053</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01292642157423461</v>
+      </c>
+      <c r="E31">
+        <v>-0.05684607964947817</v>
+      </c>
+      <c r="F31">
+        <v>-0.07389266940144459</v>
+      </c>
+      <c r="G31">
+        <v>-0.0488403518732364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001966701169306395</v>
+        <v>0.005212232190165335</v>
       </c>
       <c r="C32">
-        <v>-0.04318602871741815</v>
+        <v>0.03381774332541259</v>
       </c>
       <c r="D32">
-        <v>-0.04265163567766141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0509756745186257</v>
+      </c>
+      <c r="E32">
+        <v>-0.04039060216262796</v>
+      </c>
+      <c r="F32">
+        <v>-0.06619919742985816</v>
+      </c>
+      <c r="G32">
+        <v>0.009531101907205726</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03037327094663187</v>
+        <v>0.02479198835400424</v>
       </c>
       <c r="C33">
-        <v>-0.06193433066063525</v>
+        <v>0.05575263351657461</v>
       </c>
       <c r="D33">
-        <v>-0.04319393790760098</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07635352539671948</v>
+      </c>
+      <c r="E33">
+        <v>-0.07300190693331564</v>
+      </c>
+      <c r="F33">
+        <v>-0.1178766165551439</v>
+      </c>
+      <c r="G33">
+        <v>-0.02217193210829477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04675498028178265</v>
+        <v>0.0410348205144373</v>
       </c>
       <c r="C34">
-        <v>-0.06462001403225835</v>
+        <v>0.06381573904860714</v>
       </c>
       <c r="D34">
-        <v>-0.009208550250374493</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03386628811542742</v>
+      </c>
+      <c r="E34">
+        <v>-0.002686348983796687</v>
+      </c>
+      <c r="F34">
+        <v>-0.07783636772910306</v>
+      </c>
+      <c r="G34">
+        <v>-0.01156943866470943</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01379400845835549</v>
+        <v>0.01305981209981581</v>
       </c>
       <c r="C36">
-        <v>-0.01616671885507983</v>
+        <v>0.01292587653114111</v>
       </c>
       <c r="D36">
-        <v>0.003667002489042384</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02539313450527062</v>
+      </c>
+      <c r="E36">
+        <v>-0.04594715875076284</v>
+      </c>
+      <c r="F36">
+        <v>-0.07531581623870542</v>
+      </c>
+      <c r="G36">
+        <v>-0.01022677106211587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03156536927037869</v>
+        <v>0.02444389413868381</v>
       </c>
       <c r="C38">
-        <v>-0.02948023096291157</v>
+        <v>0.02505117024280086</v>
       </c>
       <c r="D38">
-        <v>0.00681487944340567</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02430759400242962</v>
+      </c>
+      <c r="E38">
+        <v>-0.04492732755737343</v>
+      </c>
+      <c r="F38">
+        <v>-0.06333872775723652</v>
+      </c>
+      <c r="G38">
+        <v>-0.005444586630203294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04659384397278293</v>
+        <v>0.0395163064563459</v>
       </c>
       <c r="C39">
-        <v>-0.07207973017541408</v>
+        <v>0.06867059498562764</v>
       </c>
       <c r="D39">
-        <v>-0.02481776659391417</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0522068110363855</v>
+      </c>
+      <c r="E39">
+        <v>-0.03308542194939163</v>
+      </c>
+      <c r="F39">
+        <v>-0.08608422864943772</v>
+      </c>
+      <c r="G39">
+        <v>0.01345101604604014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01678495741177451</v>
+        <v>0.01544117319851844</v>
       </c>
       <c r="C40">
-        <v>-0.03975120880433949</v>
+        <v>0.0404712107144494</v>
       </c>
       <c r="D40">
-        <v>-0.03358448340138354</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0351447644126387</v>
+      </c>
+      <c r="E40">
+        <v>-0.08589576295880047</v>
+      </c>
+      <c r="F40">
+        <v>-0.06979541433698247</v>
+      </c>
+      <c r="G40">
+        <v>-0.04407835726147635</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01692945257530239</v>
+        <v>0.0176435161464541</v>
       </c>
       <c r="C41">
-        <v>-0.01139634724078449</v>
+        <v>0.006739647655996687</v>
       </c>
       <c r="D41">
-        <v>0.006349256137665965</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01297771845802176</v>
+      </c>
+      <c r="E41">
+        <v>-0.04817837714075656</v>
+      </c>
+      <c r="F41">
+        <v>-0.06505958556563946</v>
+      </c>
+      <c r="G41">
+        <v>-0.003583307723937032</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.002448951854849607</v>
+        <v>0.001740058892573425</v>
       </c>
       <c r="C42">
-        <v>-0.007870996470510202</v>
+        <v>0.004520986856871144</v>
       </c>
       <c r="D42">
-        <v>0.002479086717733348</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.003044526669253261</v>
+      </c>
+      <c r="E42">
+        <v>-0.002082183725915021</v>
+      </c>
+      <c r="F42">
+        <v>0.00334281204387155</v>
+      </c>
+      <c r="G42">
+        <v>-0.0002535910530372874</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03682183162635954</v>
+        <v>0.02871167214719457</v>
       </c>
       <c r="C43">
-        <v>-0.02596527663662661</v>
+        <v>0.02191860217973577</v>
       </c>
       <c r="D43">
-        <v>-0.01494015317308151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03803969726183902</v>
+      </c>
+      <c r="E43">
+        <v>-0.06038988080600411</v>
+      </c>
+      <c r="F43">
+        <v>-0.07381688116469598</v>
+      </c>
+      <c r="G43">
+        <v>-0.02292230593346305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02120254599216207</v>
+        <v>0.01404723699470223</v>
       </c>
       <c r="C44">
-        <v>-0.05707820501293397</v>
+        <v>0.05267661137447494</v>
       </c>
       <c r="D44">
-        <v>-0.01533259710569938</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03790902222789735</v>
+      </c>
+      <c r="E44">
+        <v>-0.07567843711784028</v>
+      </c>
+      <c r="F44">
+        <v>-0.07488176241800161</v>
+      </c>
+      <c r="G44">
+        <v>0.002927706275909581</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.005547147032630094</v>
+        <v>0.007483869424516356</v>
       </c>
       <c r="C46">
-        <v>-0.02363214910557314</v>
+        <v>0.02583123063616868</v>
       </c>
       <c r="D46">
-        <v>0.02560679241826916</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.009037076974476494</v>
+      </c>
+      <c r="E46">
+        <v>-0.04521752232884821</v>
+      </c>
+      <c r="F46">
+        <v>-0.09861603763493546</v>
+      </c>
+      <c r="G46">
+        <v>-0.001146882110982246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08507146829885023</v>
+        <v>0.08723709103748969</v>
       </c>
       <c r="C47">
-        <v>-0.06708819840957907</v>
+        <v>0.07998938320842974</v>
       </c>
       <c r="D47">
-        <v>0.02870178835471122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0203114476608742</v>
+      </c>
+      <c r="E47">
+        <v>-0.06165477405309122</v>
+      </c>
+      <c r="F47">
+        <v>-0.07284226073670742</v>
+      </c>
+      <c r="G47">
+        <v>-0.05177596271091194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01997375319306173</v>
+        <v>0.01580957357993977</v>
       </c>
       <c r="C48">
-        <v>-0.01446945135332731</v>
+        <v>0.01796519783270413</v>
       </c>
       <c r="D48">
-        <v>0.01640106831676558</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01445754180842363</v>
+      </c>
+      <c r="E48">
+        <v>-0.05762921561327443</v>
+      </c>
+      <c r="F48">
+        <v>-0.08942195056960413</v>
+      </c>
+      <c r="G48">
+        <v>-0.009879568367048196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08478502332505689</v>
+        <v>0.07098597187115641</v>
       </c>
       <c r="C50">
-        <v>-0.0679660367352785</v>
+        <v>0.07189096855855576</v>
       </c>
       <c r="D50">
-        <v>0.03632446892729125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.007874572136508416</v>
+      </c>
+      <c r="E50">
+        <v>-0.06273185197763435</v>
+      </c>
+      <c r="F50">
+        <v>-0.06118002215578625</v>
+      </c>
+      <c r="G50">
+        <v>-0.07339190833992994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01752189943340424</v>
+        <v>0.01079660051826424</v>
       </c>
       <c r="C51">
-        <v>-0.04742912820560371</v>
+        <v>0.03423316799068486</v>
       </c>
       <c r="D51">
-        <v>-0.02154237665238775</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04792543883328209</v>
+      </c>
+      <c r="E51">
+        <v>-0.03732066672304695</v>
+      </c>
+      <c r="F51">
+        <v>-0.07635032045084471</v>
+      </c>
+      <c r="G51">
+        <v>0.01879000820744101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08640622502574953</v>
+        <v>0.09394173322003321</v>
       </c>
       <c r="C53">
-        <v>-0.0712349889231222</v>
+        <v>0.08624197586920795</v>
       </c>
       <c r="D53">
-        <v>0.04069920794035678</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.04311309519755216</v>
+      </c>
+      <c r="E53">
+        <v>-0.05725322893077166</v>
+      </c>
+      <c r="F53">
+        <v>-0.08429712137350927</v>
+      </c>
+      <c r="G53">
+        <v>-0.06374664839866118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03395848011288293</v>
+        <v>0.02809758371573461</v>
       </c>
       <c r="C54">
-        <v>-0.02303496516316004</v>
+        <v>0.02633887699241666</v>
       </c>
       <c r="D54">
-        <v>0.00710181286545267</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0273080731775983</v>
+      </c>
+      <c r="E54">
+        <v>-0.04923161565912325</v>
+      </c>
+      <c r="F54">
+        <v>-0.0946273186026398</v>
+      </c>
+      <c r="G54">
+        <v>-0.006319716224479246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07815421225637761</v>
+        <v>0.08530127926231594</v>
       </c>
       <c r="C55">
-        <v>-0.05573394798207062</v>
+        <v>0.07012493124301451</v>
       </c>
       <c r="D55">
-        <v>0.04769044340076044</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05007002901441183</v>
+      </c>
+      <c r="E55">
+        <v>-0.04540839156471285</v>
+      </c>
+      <c r="F55">
+        <v>-0.05918142811059821</v>
+      </c>
+      <c r="G55">
+        <v>-0.05199720407069512</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1519258685413575</v>
+        <v>0.146929765071073</v>
       </c>
       <c r="C56">
-        <v>-0.08589529969402614</v>
+        <v>0.1039673214329596</v>
       </c>
       <c r="D56">
-        <v>0.05259957289357181</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05368678243952098</v>
+      </c>
+      <c r="E56">
+        <v>-0.04729196922589854</v>
+      </c>
+      <c r="F56">
+        <v>-0.04494924209464228</v>
+      </c>
+      <c r="G56">
+        <v>-0.05956339135337369</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.000969756438943625</v>
+        <v>0.0002574941336218399</v>
       </c>
       <c r="C57">
-        <v>-0.001927063048888639</v>
+        <v>0.001255426160077232</v>
       </c>
       <c r="D57">
-        <v>-0.01767714697718277</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01339902475103329</v>
+      </c>
+      <c r="E57">
+        <v>-0.008810522322163157</v>
+      </c>
+      <c r="F57">
+        <v>-0.009132461620558936</v>
+      </c>
+      <c r="G57">
+        <v>-0.004515114915752763</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.06827579484518088</v>
+        <v>0.02896531581536798</v>
       </c>
       <c r="C58">
-        <v>-0.02001591459130451</v>
+        <v>0.03806721493543014</v>
       </c>
       <c r="D58">
-        <v>-0.7267620844308545</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4017416265994709</v>
+      </c>
+      <c r="E58">
+        <v>-0.670647970950027</v>
+      </c>
+      <c r="F58">
+        <v>0.5387720226735538</v>
+      </c>
+      <c r="G58">
+        <v>0.05845054815084566</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1255271769387051</v>
+        <v>0.1442335046035959</v>
       </c>
       <c r="C59">
-        <v>0.2055713968192878</v>
+        <v>-0.1871849308238182</v>
       </c>
       <c r="D59">
-        <v>-0.01708113370072239</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03019469019607857</v>
+      </c>
+      <c r="E59">
+        <v>-0.02918470290445246</v>
+      </c>
+      <c r="F59">
+        <v>-0.02284064399252039</v>
+      </c>
+      <c r="G59">
+        <v>0.02856938021873779</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.312775313368661</v>
+        <v>0.2836376869613508</v>
       </c>
       <c r="C60">
-        <v>-0.07343110043405925</v>
+        <v>0.09666735811325539</v>
       </c>
       <c r="D60">
-        <v>-0.1218023327378681</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2265827166576653</v>
+      </c>
+      <c r="E60">
+        <v>0.2627685096846792</v>
+      </c>
+      <c r="F60">
+        <v>0.09262290211038514</v>
+      </c>
+      <c r="G60">
+        <v>-0.04424845064535064</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04339644192609569</v>
+        <v>0.04075987639428208</v>
       </c>
       <c r="C61">
-        <v>-0.06303982088403853</v>
+        <v>0.06217846404817699</v>
       </c>
       <c r="D61">
-        <v>-0.01428542134833252</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04479921654435431</v>
+      </c>
+      <c r="E61">
+        <v>-0.03630010517767183</v>
+      </c>
+      <c r="F61">
+        <v>-0.0768458161888166</v>
+      </c>
+      <c r="G61">
+        <v>-0.01264664551606056</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01698092281825607</v>
+        <v>0.01511448494998646</v>
       </c>
       <c r="C63">
-        <v>-0.03560374725297519</v>
+        <v>0.03294438209468809</v>
       </c>
       <c r="D63">
-        <v>0.008086942577104005</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02098407339007651</v>
+      </c>
+      <c r="E63">
+        <v>-0.04868861716933611</v>
+      </c>
+      <c r="F63">
+        <v>-0.06992584327185762</v>
+      </c>
+      <c r="G63">
+        <v>-0.02881642895518874</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05196019162505816</v>
+        <v>0.05594465591177984</v>
       </c>
       <c r="C64">
-        <v>-0.03876496221336481</v>
+        <v>0.0545163574127279</v>
       </c>
       <c r="D64">
-        <v>0.008461555814008943</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.005534758495474301</v>
+      </c>
+      <c r="E64">
+        <v>-0.02917262545608186</v>
+      </c>
+      <c r="F64">
+        <v>-0.08330194423996379</v>
+      </c>
+      <c r="G64">
+        <v>-0.01094167925454474</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.09213997355942415</v>
+        <v>0.0690690197185386</v>
       </c>
       <c r="C65">
-        <v>-0.02334788671697397</v>
+        <v>0.03219406610944431</v>
       </c>
       <c r="D65">
-        <v>-0.04586928330794554</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.084331718395923</v>
+      </c>
+      <c r="E65">
+        <v>-0.04401177821010833</v>
+      </c>
+      <c r="F65">
+        <v>-0.009057521603218193</v>
+      </c>
+      <c r="G65">
+        <v>-0.001358264741640941</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06675297740224483</v>
+        <v>0.05223416923301945</v>
       </c>
       <c r="C66">
-        <v>-0.1007583568764239</v>
+        <v>0.09081540277311688</v>
       </c>
       <c r="D66">
-        <v>-0.04280494887945666</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07931052659750114</v>
+      </c>
+      <c r="E66">
+        <v>-0.04100049061735943</v>
+      </c>
+      <c r="F66">
+        <v>-0.08626934457313644</v>
+      </c>
+      <c r="G66">
+        <v>-0.00372310189064189</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05314378728374756</v>
+        <v>0.04644553320806539</v>
       </c>
       <c r="C67">
-        <v>-0.03309204015258659</v>
+        <v>0.03074128526470029</v>
       </c>
       <c r="D67">
-        <v>0.009059099257764118</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01124994919394459</v>
+      </c>
+      <c r="E67">
+        <v>-0.02390349401408688</v>
+      </c>
+      <c r="F67">
+        <v>-0.05192912551995678</v>
+      </c>
+      <c r="G67">
+        <v>-0.01206855438723309</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1079020100232633</v>
+        <v>0.1494757784662252</v>
       </c>
       <c r="C68">
-        <v>0.2924958595355013</v>
+        <v>-0.2521502454876166</v>
       </c>
       <c r="D68">
-        <v>0.01386500219813618</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02163423162752564</v>
+      </c>
+      <c r="E68">
+        <v>-0.04109823732885073</v>
+      </c>
+      <c r="F68">
+        <v>-0.01360290210571713</v>
+      </c>
+      <c r="G68">
+        <v>-0.01072260942553344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0911671426837096</v>
+        <v>0.08699823591604834</v>
       </c>
       <c r="C69">
-        <v>-0.06661558342518578</v>
+        <v>0.08561040368477682</v>
       </c>
       <c r="D69">
-        <v>0.04109471417400513</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01111445145976047</v>
+      </c>
+      <c r="E69">
+        <v>-0.04442803362765704</v>
+      </c>
+      <c r="F69">
+        <v>-0.09011090040257487</v>
+      </c>
+      <c r="G69">
+        <v>-0.0292318463183108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1044483120187903</v>
+        <v>0.1418864601802443</v>
       </c>
       <c r="C71">
-        <v>0.252287893905573</v>
+        <v>-0.2336951758612985</v>
       </c>
       <c r="D71">
-        <v>-0.01547689247150978</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.009522846340275289</v>
+      </c>
+      <c r="E71">
+        <v>-0.06682692383310501</v>
+      </c>
+      <c r="F71">
+        <v>-0.05434347595456981</v>
+      </c>
+      <c r="G71">
+        <v>-0.03497526670138933</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.08934921879162648</v>
+        <v>0.09724006611684582</v>
       </c>
       <c r="C72">
-        <v>-0.04618436892981418</v>
+        <v>0.05455844539562092</v>
       </c>
       <c r="D72">
-        <v>-0.0008230593493425969</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02442116020554569</v>
+      </c>
+      <c r="E72">
+        <v>-0.02231255666941796</v>
+      </c>
+      <c r="F72">
+        <v>-0.07399914952718252</v>
+      </c>
+      <c r="G72">
+        <v>-0.02869318492799382</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4215376411715955</v>
+        <v>0.3471356543195307</v>
       </c>
       <c r="C73">
-        <v>-0.04135043293815936</v>
+        <v>0.07764691527546189</v>
       </c>
       <c r="D73">
-        <v>-0.3245226921905023</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4758207255705382</v>
+      </c>
+      <c r="E73">
+        <v>0.4672470443617694</v>
+      </c>
+      <c r="F73">
+        <v>0.2512041021347032</v>
+      </c>
+      <c r="G73">
+        <v>-0.09840309912865582</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.115602178921673</v>
+        <v>0.111807175864687</v>
       </c>
       <c r="C74">
-        <v>-0.09816949855166095</v>
+        <v>0.09916895561711067</v>
       </c>
       <c r="D74">
-        <v>0.02836035251936626</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03458020495863942</v>
+      </c>
+      <c r="E74">
+        <v>-0.064920713419354</v>
+      </c>
+      <c r="F74">
+        <v>-0.04594740545846118</v>
+      </c>
+      <c r="G74">
+        <v>-0.07296162827913856</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2517277320282545</v>
+        <v>0.2573194599588998</v>
       </c>
       <c r="C75">
-        <v>-0.104439447470021</v>
+        <v>0.1320978433711592</v>
       </c>
       <c r="D75">
-        <v>0.09170024479942793</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1334954358714141</v>
+      </c>
+      <c r="E75">
+        <v>-0.06598345578953807</v>
+      </c>
+      <c r="F75">
+        <v>-0.01223728443118236</v>
+      </c>
+      <c r="G75">
+        <v>-0.07618590744416202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1172004126191058</v>
+        <v>0.1288098566391841</v>
       </c>
       <c r="C76">
-        <v>-0.0880021238838793</v>
+        <v>0.100444257214092</v>
       </c>
       <c r="D76">
-        <v>0.04507340013691114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06110173539649624</v>
+      </c>
+      <c r="E76">
+        <v>-0.07027186553375198</v>
+      </c>
+      <c r="F76">
+        <v>-0.06340618420014688</v>
+      </c>
+      <c r="G76">
+        <v>-0.06225601884377796</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07924024434332783</v>
+        <v>0.06279248098049638</v>
       </c>
       <c r="C77">
-        <v>-0.05301288182723421</v>
+        <v>0.07003333597566201</v>
       </c>
       <c r="D77">
-        <v>-0.06397759415369229</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06395879996771267</v>
+      </c>
+      <c r="E77">
+        <v>-0.09130974329422722</v>
+      </c>
+      <c r="F77">
+        <v>-0.109879397373033</v>
+      </c>
+      <c r="G77">
+        <v>0.1353984746751881</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.05054484823396788</v>
+        <v>0.04362087936558568</v>
       </c>
       <c r="C78">
-        <v>-0.0398828356294789</v>
+        <v>0.05676717059112926</v>
       </c>
       <c r="D78">
-        <v>-0.02703208087376871</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07107021740038481</v>
+      </c>
+      <c r="E78">
+        <v>-0.04584934565191498</v>
+      </c>
+      <c r="F78">
+        <v>-0.09649147632434356</v>
+      </c>
+      <c r="G78">
+        <v>-0.005103023730054071</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02551682920645417</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03795734205347065</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06230075119292802</v>
+      </c>
+      <c r="E79">
+        <v>-0.05104649225456465</v>
+      </c>
+      <c r="F79">
+        <v>-0.03959814456272462</v>
+      </c>
+      <c r="G79">
+        <v>-0.06737650513782652</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04698620344198835</v>
+        <v>0.03477644137114828</v>
       </c>
       <c r="C80">
-        <v>-0.05064559056522062</v>
+        <v>0.05516486973251226</v>
       </c>
       <c r="D80">
-        <v>-0.03440027689288541</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04503292009207573</v>
+      </c>
+      <c r="E80">
+        <v>-0.01726092088426082</v>
+      </c>
+      <c r="F80">
+        <v>-0.03469495480374218</v>
+      </c>
+      <c r="G80">
+        <v>0.04644181846229263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1426504805625417</v>
+        <v>0.1408765988059531</v>
       </c>
       <c r="C81">
-        <v>-0.07143201049675629</v>
+        <v>0.09560620730587512</v>
       </c>
       <c r="D81">
-        <v>0.06306809866304539</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1018319687842592</v>
+      </c>
+      <c r="E81">
+        <v>-0.07796904213284027</v>
+      </c>
+      <c r="F81">
+        <v>-0.008751897742141222</v>
+      </c>
+      <c r="G81">
+        <v>-0.0560090834337643</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1599797559199331</v>
+        <v>0.2015899793508306</v>
       </c>
       <c r="C82">
-        <v>-0.05383077676344274</v>
+        <v>0.1349101887040343</v>
       </c>
       <c r="D82">
-        <v>0.155820304246434</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2354394338024104</v>
+      </c>
+      <c r="E82">
+        <v>0.008745461623030181</v>
+      </c>
+      <c r="F82">
+        <v>-0.1000501542439884</v>
+      </c>
+      <c r="G82">
+        <v>-0.04427356901125197</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03612928974166301</v>
+        <v>0.02812350926962915</v>
       </c>
       <c r="C83">
-        <v>-0.02152879593781903</v>
+        <v>0.04126816068110786</v>
       </c>
       <c r="D83">
-        <v>-0.03805943498335628</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03411897677826496</v>
+      </c>
+      <c r="E83">
+        <v>-0.02041582688793393</v>
+      </c>
+      <c r="F83">
+        <v>-0.04389421484721962</v>
+      </c>
+      <c r="G83">
+        <v>0.01977229688842444</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2207957207163682</v>
+        <v>0.2045591719433915</v>
       </c>
       <c r="C85">
-        <v>-0.09941508563984645</v>
+        <v>0.1191169892989681</v>
       </c>
       <c r="D85">
-        <v>0.1151558844187999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.100463988354813</v>
+      </c>
+      <c r="E85">
+        <v>0.0057937203165605</v>
+      </c>
+      <c r="F85">
+        <v>0.01735758085463095</v>
+      </c>
+      <c r="G85">
+        <v>-0.1279436033027206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01235315171039362</v>
+        <v>0.01172283432462404</v>
       </c>
       <c r="C86">
-        <v>-0.03593139881373675</v>
+        <v>0.03157561942420364</v>
       </c>
       <c r="D86">
-        <v>-0.04769687144607478</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06721466710596478</v>
+      </c>
+      <c r="E86">
+        <v>-0.06402508965360597</v>
+      </c>
+      <c r="F86">
+        <v>-0.1335300218543769</v>
+      </c>
+      <c r="G86">
+        <v>0.008823721519377605</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02355947872570301</v>
+        <v>0.0216245058917973</v>
       </c>
       <c r="C87">
-        <v>-0.01846942780486021</v>
+        <v>0.02217769109923075</v>
       </c>
       <c r="D87">
-        <v>-0.0960477386510475</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08831978523091417</v>
+      </c>
+      <c r="E87">
+        <v>-0.1120249152581797</v>
+      </c>
+      <c r="F87">
+        <v>-0.07483537782251541</v>
+      </c>
+      <c r="G87">
+        <v>0.03622336613406831</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1070756244373828</v>
+        <v>0.0919854700738767</v>
       </c>
       <c r="C88">
-        <v>-0.06961109333336875</v>
+        <v>0.06271236947265119</v>
       </c>
       <c r="D88">
-        <v>0.03035673104163981</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.006628398996225568</v>
+      </c>
+      <c r="E88">
+        <v>-0.04139927121226459</v>
+      </c>
+      <c r="F88">
+        <v>-0.07009902804208734</v>
+      </c>
+      <c r="G88">
+        <v>0.02888141213151796</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1659012004553716</v>
+        <v>0.2211139634681243</v>
       </c>
       <c r="C89">
-        <v>0.3820540218254014</v>
+        <v>-0.379892735089174</v>
       </c>
       <c r="D89">
-        <v>0.009293100779872792</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.007672623677596772</v>
+      </c>
+      <c r="E89">
+        <v>-0.06330450868704314</v>
+      </c>
+      <c r="F89">
+        <v>-0.07472988470901659</v>
+      </c>
+      <c r="G89">
+        <v>0.06330259537862862</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1621137226547622</v>
+        <v>0.1996966559239797</v>
       </c>
       <c r="C90">
-        <v>0.3529685128522695</v>
+        <v>-0.3155496457207304</v>
       </c>
       <c r="D90">
-        <v>0.03158010571020125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.0173495921881603</v>
+      </c>
+      <c r="E90">
+        <v>-0.06938496793277227</v>
+      </c>
+      <c r="F90">
+        <v>-0.03960952316496229</v>
+      </c>
+      <c r="G90">
+        <v>0.01131712114830894</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1928453381433002</v>
+        <v>0.1865523499834673</v>
       </c>
       <c r="C91">
-        <v>-0.1146755037461645</v>
+        <v>0.1392941602802253</v>
       </c>
       <c r="D91">
-        <v>0.08390820928128742</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.111343301361175</v>
+      </c>
+      <c r="E91">
+        <v>-0.05706939727317233</v>
+      </c>
+      <c r="F91">
+        <v>-0.03427048790406592</v>
+      </c>
+      <c r="G91">
+        <v>-0.06045482235807884</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1566264791814265</v>
+        <v>0.1816425354925387</v>
       </c>
       <c r="C92">
-        <v>0.2939400458920605</v>
+        <v>-0.283807945784824</v>
       </c>
       <c r="D92">
-        <v>0.01944482353934738</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.006487363569782834</v>
+      </c>
+      <c r="E92">
+        <v>-0.07205456752524604</v>
+      </c>
+      <c r="F92">
+        <v>-0.08121663309222411</v>
+      </c>
+      <c r="G92">
+        <v>0.007428404585291164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1841603960971529</v>
+        <v>0.2240637765019837</v>
       </c>
       <c r="C93">
-        <v>0.3477502406292398</v>
+        <v>-0.3198915630313348</v>
       </c>
       <c r="D93">
-        <v>0.02225101042150167</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.00338373140307352</v>
+      </c>
+      <c r="E93">
+        <v>-0.05279405642723902</v>
+      </c>
+      <c r="F93">
+        <v>-0.03848966123837114</v>
+      </c>
+      <c r="G93">
+        <v>-0.0271432482395003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3411844159531857</v>
+        <v>0.3429364042364687</v>
       </c>
       <c r="C94">
-        <v>-0.1308643736668265</v>
+        <v>0.1835528791595512</v>
       </c>
       <c r="D94">
-        <v>0.4340643819954937</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4955214602499667</v>
+      </c>
+      <c r="E94">
+        <v>-0.05017073853361566</v>
+      </c>
+      <c r="F94">
+        <v>0.44274091811363</v>
+      </c>
+      <c r="G94">
+        <v>0.3320261586259732</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1133121079156492</v>
+        <v>0.08571622873047592</v>
       </c>
       <c r="C95">
-        <v>-0.07176138179310439</v>
+        <v>0.06727871738800431</v>
       </c>
       <c r="D95">
-        <v>-0.1131628715467384</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1709279764399695</v>
+      </c>
+      <c r="E95">
+        <v>0.09524724510743823</v>
+      </c>
+      <c r="F95">
+        <v>-0.2196027075310056</v>
+      </c>
+      <c r="G95">
+        <v>0.8657642145894494</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1966063769204457</v>
+        <v>0.1873526061128868</v>
       </c>
       <c r="C98">
-        <v>-0.01481686307117777</v>
+        <v>0.04264411750523909</v>
       </c>
       <c r="D98">
-        <v>-0.1212618210579866</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1898700557254791</v>
+      </c>
+      <c r="E98">
+        <v>0.148308124079284</v>
+      </c>
+      <c r="F98">
+        <v>0.03196932788802447</v>
+      </c>
+      <c r="G98">
+        <v>-0.1013018861067261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.00965206113004919</v>
+        <v>0.005931635039269219</v>
       </c>
       <c r="C101">
-        <v>-0.02858382727835707</v>
+        <v>0.02749186437810538</v>
       </c>
       <c r="D101">
-        <v>0.01986703088724465</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01802572119571079</v>
+      </c>
+      <c r="E101">
+        <v>-0.0396250961660318</v>
+      </c>
+      <c r="F101">
+        <v>-0.08664150142911205</v>
+      </c>
+      <c r="G101">
+        <v>-0.004724666302239815</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1242311840216398</v>
+        <v>0.1245044238197022</v>
       </c>
       <c r="C102">
-        <v>-0.07157917965300853</v>
+        <v>0.09945196098224771</v>
       </c>
       <c r="D102">
-        <v>0.03058247245497356</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04871383858585075</v>
+      </c>
+      <c r="E102">
+        <v>0.008962877064668843</v>
+      </c>
+      <c r="F102">
+        <v>-0.04284621214413557</v>
+      </c>
+      <c r="G102">
+        <v>-0.02295585090324091</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
